--- a/data/dataframe/10055.xlsx
+++ b/data/dataframe/10055.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/jam/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A2532CEC-9B84-DB4F-8460-8441E893D887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{277E50EF-3761-FA4B-AE1B-86D20C76EA21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33540" yWindow="2640" windowWidth="21600" windowHeight="11380" xr2:uid="{37A69F60-906B-45BC-86F3-E3C8F900ED2E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,9 +36,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="12">
   <si>
-    <t>col</t>
-  </si>
-  <si>
     <t>obs</t>
   </si>
   <si>
@@ -70,6 +67,9 @@
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t>exp</t>
   </si>
 </sst>
 </file>
@@ -143,9 +143,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -183,7 +183,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -289,7 +289,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -431,7 +431,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -442,7 +442,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -453,36 +453,36 @@
   <sheetData>
     <row r="1" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <f>-9.5*10^(-5)*D2</f>
@@ -492,7 +492,7 @@
         <v>1.6</v>
       </c>
       <c r="E2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <f>1.6*10^(-5)</f>
@@ -507,10 +507,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3">
         <f t="shared" ref="C3:C13" si="0">-9.7*10^(-5)*D3</f>
@@ -520,7 +520,7 @@
         <v>0.92</v>
       </c>
       <c r="E3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <f>4.5*10^(-5)</f>
@@ -535,10 +535,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4">
         <f t="shared" si="0"/>
@@ -548,7 +548,7 @@
         <v>1.53</v>
       </c>
       <c r="E4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <f>1.3*10^(-5)</f>
@@ -563,10 +563,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
@@ -576,7 +576,7 @@
         <v>1.52</v>
       </c>
       <c r="E5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <f>1.7*10^(-5)</f>
@@ -591,10 +591,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
@@ -604,7 +604,7 @@
         <v>1.33</v>
       </c>
       <c r="E6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <f>1.7*10^(-5)</f>
@@ -619,10 +619,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
@@ -632,7 +632,7 @@
         <v>1.28</v>
       </c>
       <c r="E7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <f>1.8*10^(-5)</f>
@@ -647,10 +647,10 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
@@ -660,7 +660,7 @@
         <v>1.25</v>
       </c>
       <c r="E8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <f>2*10^(-5)</f>
@@ -675,10 +675,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
@@ -688,7 +688,7 @@
         <v>1.1599999999999999</v>
       </c>
       <c r="E9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <f>1.8*10^(-5)</f>
@@ -703,10 +703,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
@@ -716,7 +716,7 @@
         <v>1.07</v>
       </c>
       <c r="E10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <f>2.9*10^(-5)</f>
@@ -731,10 +731,10 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
@@ -744,7 +744,7 @@
         <v>0.93</v>
       </c>
       <c r="E11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <f>3*10^(-5)</f>
@@ -759,10 +759,10 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
@@ -772,7 +772,7 @@
         <v>1.96</v>
       </c>
       <c r="E12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <f>2.1*10^(-5)</f>
@@ -787,10 +787,10 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
@@ -800,7 +800,7 @@
         <v>1.66</v>
       </c>
       <c r="E13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <f>2.8*10^(-5)</f>

--- a/data/dataframe/10055.xlsx
+++ b/data/dataframe/10055.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/jam/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{277E50EF-3761-FA4B-AE1B-86D20C76EA21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA448FE9-9E55-2A40-94E3-55575436D512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33540" yWindow="2640" windowWidth="21600" windowHeight="11380" xr2:uid="{37A69F60-906B-45BC-86F3-E3C8F900ED2E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="format" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
